--- a/course.xlsx
+++ b/course.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\train\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\train\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98957271-817F-4D1A-92C8-717E922AFCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF1B8AD-8DEA-41DD-9101-474E1EA44BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B2CBC11-995B-4B11-8387-F68069856390}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +580,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,30 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,41 +965,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7264FA89-2450-4F80-8C55-A14D35F3755B}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.6" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="24.6"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" ht="33">
+      <c r="A1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-    </row>
-    <row r="2" spans="1:15" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="73.8">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="73.8">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -1063,7 +1063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="49.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" ht="49.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1077,101 +1077,101 @@
         <v>62</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="32" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="29" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="29" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="32" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="10" spans="1:15" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="10" spans="1:15" ht="73.8">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" ht="24" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1215,18 +1215,18 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" ht="24.6" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="26"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="12" t="s">
         <v>73</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" ht="24.6" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="12" t="s">
         <v>74</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" ht="24.6" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="12" t="s">
         <v>66</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" ht="24.6" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1301,14 +1301,14 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="26"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" ht="24.6" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1318,14 +1318,14 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="27"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="18" spans="1:11" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="73.8">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1360,115 +1360,115 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" ht="24.6" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="28" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="24.6" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" ht="24.6" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="24.6" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" ht="24.6" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="26" spans="1:11" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="26" spans="1:11" ht="73.8">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" ht="24.6" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -1526,7 +1526,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" ht="24.6" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1536,14 +1536,14 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" ht="24.6" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1553,14 +1553,14 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="28"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" ht="24.6" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="12" t="s">
         <v>67</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" ht="24.6" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1591,14 +1591,14 @@
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="28"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" ht="24.6" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1608,14 +1608,14 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="34" spans="1:11" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" ht="73.8">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" ht="24.6" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -1673,7 +1673,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="28"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" ht="24.6" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -1700,14 +1700,14 @@
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="28"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" ht="24.6" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1717,14 +1717,14 @@
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="28"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" ht="24.6" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="28"/>
+      <c r="F39" s="13"/>
       <c r="G39" s="12" t="s">
         <v>75</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" ht="24.6" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -1755,14 +1755,14 @@
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="28"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="42" spans="1:11" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" ht="73.8">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="12" t="s">
@@ -1820,7 +1820,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:11">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -1830,14 +1830,14 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="28"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -1847,14 +1847,14 @@
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="28"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -1864,14 +1864,14 @@
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="28"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:11">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -1881,14 +1881,14 @@
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="28"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="28"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="12" t="s">
         <v>69</v>
       </c>
@@ -1909,7 +1909,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="50" spans="1:11" ht="73.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:11" ht="73.8">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:11">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="12" t="s">
@@ -1967,7 +1967,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:11">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -1977,14 +1977,14 @@
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="28"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:11">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -1994,14 +1994,14 @@
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="28"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:11">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -2011,14 +2011,14 @@
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="28"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:11">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -2028,14 +2028,14 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="28"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:11">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="28"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="12" t="s">
         <v>70</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="58" spans="1:11" ht="48" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:11" ht="73.8">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="24" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="12" t="s">
@@ -2114,7 +2114,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" ht="24" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -2124,14 +2124,14 @@
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="28"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:11">
       <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
@@ -2141,14 +2141,14 @@
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="28"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
@@ -2158,14 +2158,14 @@
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="28"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="24" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:11">
       <c r="A63" s="3" t="s">
         <v>55</v>
       </c>
@@ -2175,21 +2175,57 @@
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="28"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="24" x14ac:dyDescent="0.65"/>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:3">
       <c r="C65" s="1" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="C43:E47"/>
+    <mergeCell ref="G43:K47"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="G14:K16"/>
+    <mergeCell ref="C19:E24"/>
+    <mergeCell ref="G19:K24"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="G27:K29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="G30:K32"/>
+    <mergeCell ref="C35:E38"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G35:K38"/>
     <mergeCell ref="C59:E63"/>
     <mergeCell ref="G59:K63"/>
     <mergeCell ref="F51:F56"/>
@@ -2200,43 +2236,6 @@
     <mergeCell ref="G51:K55"/>
     <mergeCell ref="G56:K56"/>
     <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="G27:K29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="G30:K32"/>
-    <mergeCell ref="C35:E38"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="G14:K16"/>
-    <mergeCell ref="C19:E24"/>
-    <mergeCell ref="G19:K24"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G35:K38"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="C43:E47"/>
-    <mergeCell ref="G43:K47"/>
-    <mergeCell ref="F43:F48"/>
-    <mergeCell ref="F35:F40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
